--- a/assets/flights.xlsx
+++ b/assets/flights.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F368C8-0D03-4FB7-953F-9B49F941F6DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="50">
   <si>
     <t>start</t>
   </si>
@@ -69,9 +68,6 @@
     <t>Dublin</t>
   </si>
   <si>
-    <t>Praga</t>
-  </si>
-  <si>
     <t>Mahon</t>
   </si>
   <si>
@@ -81,12 +77,6 @@
     <t>Amsterdam</t>
   </si>
   <si>
-    <t>Copenhague</t>
-  </si>
-  <si>
-    <t>Estambul</t>
-  </si>
-  <si>
     <t>Kayseri</t>
   </si>
   <si>
@@ -96,12 +86,6 @@
     <t>Basel</t>
   </si>
   <si>
-    <t>Bruselas</t>
-  </si>
-  <si>
-    <t>Edimburgo</t>
-  </si>
-  <si>
     <t>Munich</t>
   </si>
   <si>
@@ -120,9 +104,6 @@
     <t>Lanzarote</t>
   </si>
   <si>
-    <t>Estocolmo</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -132,9 +113,6 @@
     <t>Punta Cana</t>
   </si>
   <si>
-    <t>Lisboa</t>
-  </si>
-  <si>
     <t>Miami</t>
   </si>
   <si>
@@ -144,9 +122,6 @@
     <t>Milan</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -175,12 +150,36 @@
   </si>
   <si>
     <t>Business</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Rome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +507,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -523,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -534,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -543,7 +542,7 @@
         <v>1985</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -563,7 +562,7 @@
         <v>1985</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -583,7 +582,7 @@
         <v>1996</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -603,7 +602,7 @@
         <v>1996</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -623,7 +622,7 @@
         <v>1998</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -643,7 +642,7 @@
         <v>1998</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -663,7 +662,7 @@
         <v>1999</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -683,7 +682,7 @@
         <v>1999</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -703,7 +702,7 @@
         <v>2001</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -723,7 +722,7 @@
         <v>2001</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -743,7 +742,7 @@
         <v>2003</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -763,7 +762,7 @@
         <v>2003</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -783,7 +782,7 @@
         <v>2003</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -803,7 +802,7 @@
         <v>2005</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -823,7 +822,7 @@
         <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -834,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -843,7 +842,7 @@
         <v>2005</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -863,7 +862,7 @@
         <v>2005</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -883,7 +882,7 @@
         <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -903,7 +902,7 @@
         <v>2005</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -923,7 +922,7 @@
         <v>2005</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -943,7 +942,7 @@
         <v>2005</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,7 +962,7 @@
         <v>2005</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,7 +982,7 @@
         <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1003,7 +1002,7 @@
         <v>2006</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1023,7 +1022,7 @@
         <v>2006</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,7 +1042,7 @@
         <v>2007</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1062,7 @@
         <v>2007</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1084,7 +1083,7 @@
         <v>2007</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1105,7 +1104,7 @@
         <v>2007</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1126,7 +1125,7 @@
         <v>2007</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1147,7 +1146,7 @@
         <v>2007</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1168,7 +1167,7 @@
         <v>2007</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1189,7 +1188,7 @@
         <v>2007</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -1210,7 +1209,7 @@
         <v>2007</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1231,7 +1230,7 @@
         <v>2007</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>11</v>
@@ -1252,7 +1251,7 @@
         <v>2007</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1273,7 +1272,7 @@
         <v>2007</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1282,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1294,7 +1293,7 @@
         <v>2007</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -1315,7 +1314,7 @@
         <v>2007</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1336,7 +1335,7 @@
         <v>2007</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -1357,7 +1356,7 @@
         <v>2007</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1378,7 +1377,7 @@
         <v>2007</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>11</v>
@@ -1399,7 +1398,7 @@
         <v>2007</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1420,7 +1419,7 @@
         <v>2007</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>12</v>
@@ -1441,7 +1440,7 @@
         <v>2007</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1462,7 +1461,7 @@
         <v>2007</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -1483,7 +1482,7 @@
         <v>2007</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1504,7 +1503,7 @@
         <v>2007</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D50">
         <v>12</v>
@@ -1525,7 +1524,7 @@
         <v>2007</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1546,7 +1545,7 @@
         <v>2007</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -1567,7 +1566,7 @@
         <v>2007</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,7 +1575,7 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1588,7 +1587,7 @@
         <v>2007</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1609,7 +1608,7 @@
         <v>2008</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1630,7 +1629,7 @@
         <v>2008</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1642,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1651,7 +1650,7 @@
         <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1672,7 +1671,7 @@
         <v>2008</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1693,7 +1692,7 @@
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1714,7 +1713,7 @@
         <v>2008</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1735,7 +1734,7 @@
         <v>2008</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1756,7 +1755,7 @@
         <v>2008</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1777,7 +1776,7 @@
         <v>2008</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1785,7 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1798,7 +1797,7 @@
         <v>2008</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1819,7 +1818,7 @@
         <v>2008</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,7 +1827,7 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1840,7 +1839,7 @@
         <v>2008</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1861,7 +1860,7 @@
         <v>2008</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1869,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1882,7 +1881,7 @@
         <v>2008</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -1903,7 +1902,7 @@
         <v>2008</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1924,7 +1923,7 @@
         <v>2008</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1945,7 +1944,7 @@
         <v>2008</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,7 +1953,7 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1966,7 +1965,7 @@
         <v>2008</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -1987,7 +1986,7 @@
         <v>2008</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -2008,7 +2007,7 @@
         <v>2008</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2029,7 +2028,7 @@
         <v>2008</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,7 +2037,7 @@
         <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -2050,7 +2049,7 @@
         <v>2008</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -2071,7 +2070,7 @@
         <v>2008</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2079,7 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -2092,7 +2091,7 @@
         <v>2008</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -2113,7 +2112,7 @@
         <v>2008</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,7 +2121,7 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -2134,7 +2133,7 @@
         <v>2008</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -2155,7 +2154,7 @@
         <v>2008</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2163,7 @@
         <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2176,7 +2175,7 @@
         <v>2008</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -2197,7 +2196,7 @@
         <v>2008</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,7 +2205,7 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -2218,7 +2217,7 @@
         <v>2008</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -2239,7 +2238,7 @@
         <v>2008</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,7 +2247,7 @@
         <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -2260,7 +2259,7 @@
         <v>2008</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2281,7 +2280,7 @@
         <v>2008</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,7 +2289,7 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -2302,7 +2301,7 @@
         <v>2008</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2323,7 +2322,7 @@
         <v>2008</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,7 +2331,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -2344,7 +2343,7 @@
         <v>2008</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2365,7 +2364,7 @@
         <v>2008</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,7 +2373,7 @@
         <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2386,7 +2385,7 @@
         <v>2008</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2398,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -2407,7 +2406,7 @@
         <v>2008</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,7 +2415,7 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -2428,7 +2427,7 @@
         <v>2008</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -2449,7 +2448,7 @@
         <v>2008</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,7 +2457,7 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2470,7 +2469,7 @@
         <v>2008</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2482,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D96">
         <v>11</v>
@@ -2491,7 +2490,7 @@
         <v>2008</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +2499,7 @@
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2512,7 +2511,7 @@
         <v>2008</v>
       </c>
       <c r="F97" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>11</v>
@@ -2533,7 +2532,7 @@
         <v>2008</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2542,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2554,7 +2553,7 @@
         <v>2008</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -2575,7 +2574,7 @@
         <v>2009</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +2583,7 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2596,7 +2595,7 @@
         <v>2009</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -2617,7 +2616,7 @@
         <v>2009</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,7 +2625,7 @@
         <v>52</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -2638,7 +2637,7 @@
         <v>2009</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -2659,7 +2658,7 @@
         <v>2009</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +2667,7 @@
         <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2680,7 +2679,7 @@
         <v>2009</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -2701,7 +2700,7 @@
         <v>2009</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,7 +2709,7 @@
         <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -2722,7 +2721,7 @@
         <v>2009</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2734,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2743,7 +2742,7 @@
         <v>2009</v>
       </c>
       <c r="F108" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2751,7 @@
         <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -2764,7 +2763,7 @@
         <v>2009</v>
       </c>
       <c r="F109" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -2785,7 +2784,7 @@
         <v>2009</v>
       </c>
       <c r="F110" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -2806,7 +2805,7 @@
         <v>2009</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -2827,7 +2826,7 @@
         <v>2009</v>
       </c>
       <c r="F112" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,7 +2835,7 @@
         <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -2848,7 +2847,7 @@
         <v>2009</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -2869,7 +2868,7 @@
         <v>2009</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,7 +2877,7 @@
         <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2890,7 +2889,7 @@
         <v>2009</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D116">
         <v>7</v>
@@ -2911,7 +2910,7 @@
         <v>2009</v>
       </c>
       <c r="F116" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,7 +2919,7 @@
         <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -2932,7 +2931,7 @@
         <v>2009</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -2953,7 +2952,7 @@
         <v>2009</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2962,7 +2961,7 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2974,7 +2973,7 @@
         <v>2009</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,7 +2985,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -2995,7 +2994,7 @@
         <v>2010</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,7 +3003,7 @@
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -3016,7 +3015,7 @@
         <v>2010</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -3037,7 +3036,7 @@
         <v>2010</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,7 +3045,7 @@
         <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -3058,7 +3057,7 @@
         <v>2010</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,7 +3078,7 @@
         <v>2011</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +3099,7 @@
         <v>2011</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,7 +3120,7 @@
         <v>2011</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,7 +3141,7 @@
         <v>2011</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,7 +3162,7 @@
         <v>2011</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,7 +3183,7 @@
         <v>2011</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3204,7 @@
         <v>2011</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,7 +3225,7 @@
         <v>2011</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,7 +3246,7 @@
         <v>2011</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3267,7 @@
         <v>2011</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,7 +3288,7 @@
         <v>2011</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,7 +3309,7 @@
         <v>2011</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,7 +3330,7 @@
         <v>2011</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D137">
         <v>5</v>
@@ -3352,7 +3351,7 @@
         <v>2012</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3361,7 +3360,7 @@
         <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -3373,7 +3372,7 @@
         <v>2012</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -3394,7 +3393,7 @@
         <v>2012</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3402,7 @@
         <v>67</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -3415,7 +3414,7 @@
         <v>2012</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -3436,7 +3435,7 @@
         <v>2012</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,10 +3444,10 @@
         <v>68</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -3457,7 +3456,7 @@
         <v>2012</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,7 +3465,7 @@
         <v>68</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -3478,7 +3477,7 @@
         <v>2012</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144">
         <v>9</v>
@@ -3499,7 +3498,7 @@
         <v>2012</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,7 +3507,7 @@
         <v>69</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -3520,7 +3519,7 @@
         <v>2012</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,7 +3531,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -3541,7 +3540,7 @@
         <v>2013</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,7 +3549,7 @@
         <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -3562,7 +3561,7 @@
         <v>2013</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,7 +3573,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -3583,7 +3582,7 @@
         <v>2014</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3592,10 +3591,10 @@
         <v>71</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -3604,7 +3603,7 @@
         <v>2014</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,10 +3612,10 @@
         <v>71</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -3625,7 +3624,7 @@
         <v>2014</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,7 +3633,7 @@
         <v>71</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -3646,7 +3645,7 @@
         <v>2014</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -3667,7 +3666,7 @@
         <v>2015</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,10 +3675,10 @@
         <v>72</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -3688,7 +3687,7 @@
         <v>2015</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,7 +3696,7 @@
         <v>72</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -3709,7 +3708,7 @@
         <v>2015</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -3730,7 +3729,7 @@
         <v>2016</v>
       </c>
       <c r="F155" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,7 +3738,7 @@
         <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -3751,7 +3750,7 @@
         <v>2016</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3763,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -3772,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3781,7 +3780,7 @@
         <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -3793,7 +3792,7 @@
         <v>2016</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,7 +3804,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D159">
         <v>4</v>
@@ -3814,7 +3813,7 @@
         <v>2016</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3823,7 +3822,7 @@
         <v>75</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -3835,7 +3834,7 @@
         <v>2016</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D161">
         <v>6</v>
@@ -3856,7 +3855,7 @@
         <v>2016</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3864,7 @@
         <v>76</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -3877,7 +3876,7 @@
         <v>2016</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -3898,7 +3897,7 @@
         <v>2016</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -3919,7 +3918,7 @@
         <v>2016</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D165">
         <v>9</v>
@@ -3940,7 +3939,7 @@
         <v>2016</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3949,7 +3948,7 @@
         <v>78</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -3961,7 +3960,7 @@
         <v>2016</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,7 +3981,7 @@
         <v>2016</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3991,7 +3990,7 @@
         <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -4003,7 +4002,7 @@
         <v>2016</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>5</v>
@@ -4024,7 +4023,7 @@
         <v>2017</v>
       </c>
       <c r="F169" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,7 +4032,7 @@
         <v>80</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -4045,7 +4044,7 @@
         <v>2017</v>
       </c>
       <c r="F170" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4057,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D171">
         <v>8</v>
@@ -4066,7 +4065,7 @@
         <v>2017</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,7 +4074,7 @@
         <v>81</v>
       </c>
       <c r="B172" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -4087,7 +4086,7 @@
         <v>2017</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,7 +4107,7 @@
         <v>2018</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,7 +4128,7 @@
         <v>2018</v>
       </c>
       <c r="F174" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,7 +4149,7 @@
         <v>2018</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4171,7 +4170,7 @@
         <v>2018</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4191,7 @@
         <v>2018</v>
       </c>
       <c r="F177" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4213,19 +4212,19 @@
         <v>2018</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" ref="A179:A184" si="5">A177+1</f>
+        <f t="shared" ref="A179:A186" si="5">A177+1</f>
         <v>85</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D179">
         <v>6</v>
@@ -4234,7 +4233,7 @@
         <v>2018</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,7 +4242,7 @@
         <v>85</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -4255,7 +4254,7 @@
         <v>2018</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D181">
         <v>7</v>
@@ -4276,7 +4275,7 @@
         <v>2018</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,7 +4284,7 @@
         <v>86</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -4297,7 +4296,7 @@
         <v>2018</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,7 +4317,7 @@
         <v>2018</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,7 +4338,49 @@
         <v>2018</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>2019</v>
+      </c>
+      <c r="F185" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>8</v>
+      </c>
+      <c r="E186">
+        <v>2019</v>
+      </c>
+      <c r="F186" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/flights.xlsx
+++ b/assets/flights.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="50">
   <si>
     <t>start</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,6 +4383,46 @@
         <v>40</v>
       </c>
     </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>89</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>2019</v>
+      </c>
+      <c r="F187" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>89</v>
+      </c>
+      <c r="B188" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>2019</v>
+      </c>
+      <c r="F188" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
